--- a/数据元素描述表.xlsx
+++ b/数据元素描述表.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA16D9DF-A816-44E2-8821-87A1CD77F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF73BC3F-DCF5-4DF5-8B54-75A175118810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="159">
   <si>
     <t>数据元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各种任务数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标注偏好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,11 +243,431 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在任务列表页面上进行差异化的排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">0：无偏好 ；1：文本 ；2：音频 ； 3：图片 ； 4：视频 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本任务数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_text_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户参与文本标注任务的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频任务数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户参与音频标注任务的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_voice_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片任务数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_image_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户参与图片标注任务的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频任务数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_video_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户参与视频标注任务的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照用户参与各类标注任务的历史数量计算偏好，在任务列表页面上进行差异化的排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每个任务发布的时候，系统会自动赋予其一个编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> TA+（0~9）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识每个任务的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布者为任务起的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务涉及的数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1：文本 ；2：音频 ； 3：图片 ； 4：视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务组数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_group_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个任务分成的组数，每组成员完成相同的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务每组人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_member_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成相同子任务的人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布者对于这个任务的简单描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该包括且不限于任务的目的、要求、数据来源等相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务数据条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_volumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务需要的最低标注者等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> （0 ，5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单条任务发布者应当支付给标注者的金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;= 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> hh:mm:ss , dd:mm:yyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务招募截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_recruit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同用户报名参加任务的截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> hh:mm:ss , dd:mm:yyyy &amp;&amp; &gt; task_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在任务招募截止时间之前，标注者可自由选择参与任务或退出；在此时间之后，标注者若退出则需缴纳违约金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_publish_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名参与的用户开始进行标注任务的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> hh:mm:ss , dd:mm:yyyy &amp;&amp; &gt; task_publish_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> hh:mm:ss , dd:mm:yyyy &amp;&amp; &gt; task_recruit_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名参与的用户完成标注任务的最后期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注者须在此时间之前完成标注任务，否则按违约处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反映任务进度的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0：正在招募 ；1：正在标注 ； 2：正在评价 ；3：已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间来确定该任务进行到哪一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注者需要完成的任务的URL链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注者在某项任务中被分配到的组号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ~ task_group_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成标注数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注者在某项任务中已经完成的任务数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ~ task_volumn/task_group_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于作为快照功能，防止用户意外退出保留记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布者对标注者完成本次任务质量的评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ~ 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于标注的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在分类任务中可供选择的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录任务发布者与标注者对对方的反馈信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：无投诉 ；1：发布者投诉标注者标注质量 ； 2：标注者投诉发布者的评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每条标注任务的序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注者对于每条标注任务选择的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ~ count(option_tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据元素ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +675,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +693,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,12 +788,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,17 +826,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,946 +1110,3555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:I69"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269:I269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="9" max="9" width="81" customWidth="1"/>
+    <col min="8" max="8" width="17.6484375" customWidth="1"/>
+    <col min="9" max="9" width="48.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>32</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="7">
         <v>20</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G20" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="I20" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G28" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="I28" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="10" t="s">
+      <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G36" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="I36" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="40" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="41" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="7"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="7">
         <v>11</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="10" t="s">
+      <c r="F44" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G44" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="H44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="13">
         <v>6</v>
       </c>
-      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="48" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="49" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="7"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="8"/>
+      <c r="E50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="7">
         <v>1</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="10" t="s">
+      <c r="F52" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G52" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="H52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="I52" s="13">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="56" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="57" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="8" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="11"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="10" t="s">
+      <c r="B60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="10" t="s">
+      <c r="E60" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G60" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="I60" s="13">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="64" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="65" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="7"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I76" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="80" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I84" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="88" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="8" t="s">
+      <c r="H90" s="8"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="7">
+        <v>1</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I92" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="96" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="8" t="s">
+      <c r="F98" s="6"/>
+      <c r="G98" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="2" t="s">
+      <c r="B99" s="6"/>
+      <c r="C99" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="7">
+        <v>32</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I100">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="104" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="G106" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="7">
+        <v>40</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I108" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="9"/>
+    </row>
+    <row r="112" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="I114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="9"/>
+    </row>
+    <row r="116" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="7">
+        <v>1</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="10" t="s">
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I116" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="9"/>
+    </row>
+    <row r="118" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="9"/>
+    </row>
+    <row r="120" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="6"/>
+      <c r="G122" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" s="8"/>
+      <c r="I122" s="9"/>
+    </row>
+    <row r="123" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
+    </row>
+    <row r="124" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="10" t="s">
+      <c r="C124" s="9"/>
+      <c r="D124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="10" t="s">
+      <c r="E124" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="G124" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I124" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
+    </row>
+    <row r="126" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="9"/>
+    </row>
+    <row r="128" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="12"/>
+    </row>
+    <row r="130" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="6"/>
+      <c r="G130" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="I130" s="9"/>
+    </row>
+    <row r="131" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="9"/>
+    </row>
+    <row r="132" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="7">
+        <v>1</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I132" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="9"/>
+    </row>
+    <row r="134" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="9"/>
+    </row>
+    <row r="136" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="6"/>
+      <c r="G138" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H138" s="8"/>
+      <c r="I138" s="9"/>
+    </row>
+    <row r="139" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="9"/>
+    </row>
+    <row r="140" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I140" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="9"/>
+    </row>
+    <row r="142" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="9"/>
+    </row>
+    <row r="144" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="6"/>
+      <c r="G146" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="I146" s="9"/>
+    </row>
+    <row r="147" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="9"/>
+    </row>
+    <row r="148" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="7">
+        <v>1</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I148" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="9"/>
+    </row>
+    <row r="150" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="9"/>
+    </row>
+    <row r="152" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="6"/>
+      <c r="G154" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H154" s="8"/>
+      <c r="I154" s="9"/>
+    </row>
+    <row r="155" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="9"/>
+    </row>
+    <row r="156" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="7">
+        <v>1</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I156" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="9"/>
+    </row>
+    <row r="158" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="9"/>
+    </row>
+    <row r="160" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="6"/>
+      <c r="G162" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H162" s="8"/>
+      <c r="I162" s="9"/>
+    </row>
+    <row r="163" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="9"/>
+    </row>
+    <row r="164" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I164" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="9"/>
+    </row>
+    <row r="166" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="9"/>
+    </row>
+    <row r="168" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D170" s="8"/>
+      <c r="E170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="6"/>
+      <c r="G170" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H170" s="8"/>
+      <c r="I170" s="9"/>
+    </row>
+    <row r="171" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="9"/>
+    </row>
+    <row r="172" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172" s="9"/>
+      <c r="D172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I172" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="9"/>
+    </row>
+    <row r="174" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="9"/>
+    </row>
+    <row r="176" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D178" s="8"/>
+      <c r="E178" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="6"/>
+      <c r="G178" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H178" s="8"/>
+      <c r="I178" s="9"/>
+    </row>
+    <row r="179" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="9"/>
+    </row>
+    <row r="180" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" s="9"/>
+      <c r="D180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I180" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="9"/>
+    </row>
+    <row r="182" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="9"/>
+    </row>
+    <row r="184" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D186" s="8"/>
+      <c r="E186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="6"/>
+      <c r="G186" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H186" s="8"/>
+      <c r="I186" s="9"/>
+    </row>
+    <row r="187" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" s="6"/>
+      <c r="C187" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="9"/>
+    </row>
+    <row r="188" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188" s="9"/>
+      <c r="D188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I188" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="9"/>
+    </row>
+    <row r="190" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="6"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="9"/>
+    </row>
+    <row r="192" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="6"/>
+      <c r="G194" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H194" s="8"/>
+      <c r="I194" s="9"/>
+    </row>
+    <row r="195" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="9"/>
+    </row>
+    <row r="196" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="D196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I196" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="6"/>
+      <c r="C197" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="9"/>
+    </row>
+    <row r="198" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="9"/>
+    </row>
+    <row r="200" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="6"/>
+      <c r="C202" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D202" s="8"/>
+      <c r="E202" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="6"/>
+      <c r="G202" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H202" s="8"/>
+      <c r="I202" s="9"/>
+    </row>
+    <row r="203" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" s="6"/>
+      <c r="C203" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="9"/>
+    </row>
+    <row r="204" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="7">
+        <v>1</v>
+      </c>
+      <c r="C204" s="9"/>
+      <c r="D204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="8" t="s">
+      <c r="H204" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I204" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="8" t="s">
+      <c r="B205" s="6"/>
+      <c r="C205" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="9"/>
+    </row>
+    <row r="206" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="9"/>
+    </row>
+    <row r="208" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="12"/>
+    </row>
+    <row r="210" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="6"/>
+      <c r="C210" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D210" s="8"/>
+      <c r="E210" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" s="6"/>
+      <c r="G210" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H210" s="8"/>
+      <c r="I210" s="9"/>
+    </row>
+    <row r="211" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B211" s="6"/>
+      <c r="C211" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="9"/>
+    </row>
+    <row r="212" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="D212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I212" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="6"/>
+      <c r="C213" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="9"/>
+    </row>
+    <row r="214" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="9"/>
+    </row>
+    <row r="216" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="6"/>
+      <c r="C218" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D218" s="8"/>
+      <c r="E218" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="6"/>
+      <c r="G218" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H218" s="8"/>
+      <c r="I218" s="9"/>
+    </row>
+    <row r="219" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" s="6"/>
+      <c r="C219" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+      <c r="I219" s="9"/>
+    </row>
+    <row r="220" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="7">
+        <v>1</v>
+      </c>
+      <c r="C220" s="9"/>
+      <c r="D220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G220" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I220" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="9"/>
+    </row>
+    <row r="222" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="9"/>
+    </row>
+    <row r="224" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="225" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="12"/>
+    </row>
+    <row r="226" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D226" s="8"/>
+      <c r="E226" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="6"/>
+      <c r="G226" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H226" s="8"/>
+      <c r="I226" s="9"/>
+    </row>
+    <row r="227" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="6"/>
+      <c r="C227" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D227" s="8"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="8"/>
+      <c r="H227" s="8"/>
+      <c r="I227" s="9"/>
+    </row>
+    <row r="228" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" s="7">
+        <v>1</v>
+      </c>
+      <c r="C228" s="9"/>
+      <c r="D228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I228" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="6"/>
+      <c r="C229" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="8"/>
+      <c r="I229" s="9"/>
+    </row>
+    <row r="230" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" s="6"/>
+      <c r="C230" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D230" s="8"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="8"/>
+      <c r="G230" s="8"/>
+      <c r="H230" s="8"/>
+      <c r="I230" s="9"/>
+    </row>
+    <row r="232" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="233" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="12"/>
+    </row>
+    <row r="234" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="6"/>
+      <c r="C234" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D234" s="8"/>
+      <c r="E234" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="6"/>
+      <c r="G234" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H234" s="8"/>
+      <c r="I234" s="9"/>
+    </row>
+    <row r="235" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="6"/>
+      <c r="C235" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="9"/>
+    </row>
+    <row r="236" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" s="7">
+        <v>1</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G236" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I236" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="6"/>
+      <c r="C237" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="8"/>
+      <c r="H237" s="8"/>
+      <c r="I237" s="9"/>
+    </row>
+    <row r="238" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" s="6"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="8"/>
+      <c r="H238" s="8"/>
+      <c r="I238" s="9"/>
+    </row>
+    <row r="240" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="241" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="12"/>
+      <c r="J241" s="4"/>
+    </row>
+    <row r="242" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="6"/>
+      <c r="C242" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D242" s="8"/>
+      <c r="E242" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="6"/>
+      <c r="G242" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H242" s="8"/>
+      <c r="I242" s="9"/>
+    </row>
+    <row r="243" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" s="6"/>
+      <c r="C243" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="8"/>
+      <c r="H243" s="8"/>
+      <c r="I243" s="9"/>
+    </row>
+    <row r="244" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="7">
+        <v>1</v>
+      </c>
+      <c r="C244" s="9"/>
+      <c r="D244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I244" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="6"/>
+      <c r="C245" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+      <c r="H245" s="8"/>
+      <c r="I245" s="9"/>
+    </row>
+    <row r="246" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" s="6"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="8"/>
+      <c r="H246" s="8"/>
+      <c r="I246" s="9"/>
+    </row>
+    <row r="248" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="249" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="12"/>
+    </row>
+    <row r="250" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="6"/>
+      <c r="C250" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D250" s="8"/>
+      <c r="E250" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="6"/>
+      <c r="G250" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H250" s="8"/>
+      <c r="I250" s="9"/>
+    </row>
+    <row r="251" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" s="6"/>
+      <c r="C251" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="9"/>
+    </row>
+    <row r="252" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="7">
+        <v>20</v>
+      </c>
+      <c r="C252" s="9"/>
+      <c r="D252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I252" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" s="6"/>
+      <c r="C253" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D253" s="8"/>
+      <c r="E253" s="8"/>
+      <c r="F253" s="8"/>
+      <c r="G253" s="8"/>
+      <c r="H253" s="8"/>
+      <c r="I253" s="9"/>
+    </row>
+    <row r="254" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B254" s="6"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="8"/>
+      <c r="F254" s="8"/>
+      <c r="G254" s="8"/>
+      <c r="H254" s="8"/>
+      <c r="I254" s="9"/>
+    </row>
+    <row r="256" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="257" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" s="11"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="12"/>
+    </row>
+    <row r="258" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="6"/>
+      <c r="C258" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D258" s="8"/>
+      <c r="E258" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="6"/>
+      <c r="G258" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H258" s="8"/>
+      <c r="I258" s="9"/>
+    </row>
+    <row r="259" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" s="6"/>
+      <c r="C259" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="9"/>
+    </row>
+    <row r="260" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="7">
+        <v>1</v>
+      </c>
+      <c r="C260" s="9"/>
+      <c r="D260" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G260" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I260" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" s="6"/>
+      <c r="C261" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="8"/>
+      <c r="G261" s="8"/>
+      <c r="H261" s="8"/>
+      <c r="I261" s="9"/>
+    </row>
+    <row r="262" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262" s="6"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="8"/>
+      <c r="G262" s="8"/>
+      <c r="H262" s="8"/>
+      <c r="I262" s="9"/>
+    </row>
+    <row r="264" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="265" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="12"/>
+    </row>
+    <row r="266" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266" s="6"/>
+      <c r="C266" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D266" s="8"/>
+      <c r="E266" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="6"/>
+      <c r="G266" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H266" s="8"/>
+      <c r="I266" s="9"/>
+    </row>
+    <row r="267" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" s="6"/>
+      <c r="C267" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="8"/>
+      <c r="I267" s="9"/>
+    </row>
+    <row r="268" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="7">
+        <v>1</v>
+      </c>
+      <c r="C268" s="9"/>
+      <c r="D268" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I268" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" s="6"/>
+      <c r="C269" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="8"/>
+      <c r="H269" s="8"/>
+      <c r="I269" s="9"/>
+    </row>
+    <row r="270" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270" s="6"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="8"/>
+      <c r="H270" s="8"/>
+      <c r="I270" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:I67"/>
+  <mergeCells count="408">
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="C61:I61"/>
     <mergeCell ref="A62:B62"/>
@@ -1612,8 +4671,6 @@
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="C59:I59"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:I53"/>
     <mergeCell ref="A54:B54"/>
@@ -1626,8 +4683,6 @@
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:I51"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H44:I44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="A46:B46"/>
@@ -1640,8 +4695,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:I37"/>
     <mergeCell ref="A38:B38"/>
@@ -1654,8 +4707,6 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:I35"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="A30:B30"/>
@@ -1668,8 +4719,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="A22:B22"/>
@@ -1682,8 +4731,6 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="A14:B14"/>
@@ -1702,13 +4749,323 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:I85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:I94"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:I99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:I102"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:I107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:I110"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:I118"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:I123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:I125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:I126"/>
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:I131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:I133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:I139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:I141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:I142"/>
+    <mergeCell ref="A145:I145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:I147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:I149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:I150"/>
+    <mergeCell ref="A153:I153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:I157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:I158"/>
+    <mergeCell ref="A161:I161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:I163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:I165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="A169:I169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:I170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:I171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:I173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:I174"/>
+    <mergeCell ref="A177:I177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:I179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:I181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="A185:I185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:I186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:I187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:I189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:I190"/>
+    <mergeCell ref="A193:I193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:I195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:I198"/>
+    <mergeCell ref="A201:I201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:I203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:I206"/>
+    <mergeCell ref="A209:I209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="G210:I210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:I211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:I213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:I214"/>
+    <mergeCell ref="A217:I217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="G218:I218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:I219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="C222:I222"/>
+    <mergeCell ref="A225:I225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:I227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:I229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="C230:I230"/>
+    <mergeCell ref="A233:I233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="G234:I234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:I235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:I237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="C238:I238"/>
+    <mergeCell ref="A241:I241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="G242:I242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="C243:I243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="C245:I245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="C246:I246"/>
+    <mergeCell ref="A249:I249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="G250:I250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="C251:I251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:I253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:I254"/>
+    <mergeCell ref="A257:I257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="C259:I259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="C261:I261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:I262"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="C269:I269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C270:I270"/>
+    <mergeCell ref="A265:I265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="C266:D266"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="G266:I266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="C267:I267"/>
+    <mergeCell ref="B268:C268"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
